--- a/Assets/StreamingAssets/2_Canteen_Garden.xlsx
+++ b/Assets/StreamingAssets/2_Canteen_Garden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F987B35E-87BD-BB49-A147-B1829305B20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DFE028-6F19-B34E-8545-8DD1C9F36B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15960" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="97">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As we walked and talked, we unwittingly arrived at the rear garden.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Corrider-Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>What a fine poem! Though I wonder—why do the lines brim with hesitation and doubt?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I never expected to meet someone here who truly understands poetry.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,15 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">I’m flattered. I’ve merely glanced through a few books.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is you, sir, who—upon seeing the quiet garden scene—could craft a poem so freely. Now that is true talent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dee-Regular</t>
   </si>
   <si>
@@ -242,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Xu Ming.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>appearAt</t>
   </si>
   <si>
@@ -253,22 +232,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We set out from Luoyang and happened to pass through here on our way to Pengze County.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xu… could you be the young master of the manor?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I’m the son of Master Xu, but not the young master.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ming-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I have no interest in government or waterworks.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>My aspirations lie far from inheriting my father’s post.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Everyone has their own path. But some are born to carry certain responsibilities—there’s no escaping them.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dee-Thinking2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I once told my father about my dreams. But he… paid them no heed at all!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Why must a son follow exactly in his father’s footsteps?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,22 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I understand your frustration—especially when it's your own beloved family that tries to control your fate.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But Master Xu, as the official in charge of managing the Gong River—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is diligent and devoted, working single-handedly for the welfare of the people.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He is truly a man worthy of admiration.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Perhaps you're right. Maybe I don’t know my father as well as I think.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,22 +288,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It’s been a long time since I’ve met someone I can speak so freely with. Please, do stay a few more days.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Very well. It’s a promise.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(ust as we were wrapping up our conversation, a young man holding a fan appeared by our side.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Ming, what are you doing here?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,30 +300,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is my friend, Fu Lai.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Fu Lai—just a humble scholar, invited here by the young master to exchange poems and ideas.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu-Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A pleasure to meet you. I’m Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I’ve been waiting for you, Master Fu. There are some essays I wanted to discuss.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(The two chatted warmly as they walked off together.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,6 +333,94 @@
   </si>
   <si>
     <t>2_Canteen_Garden_Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m flattered. I’ve merely glanced through a few books.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now that is true talent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone has their own path. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’ve been waiting for you, Fu. There are some essays I wanted to discuss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is my friend, Fu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s been a long time since I’ve met someone I can speak so freely with. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please, do stay a few more days.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As we walked and talked, we unwittingly arrived at the garden.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What a fine poem! Though I wonder——why do the lines brim with hesitation and doubt?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is you, sir, who——upon seeing the quiet garden scene——could craft a poem so freely.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Ming.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could you be the young Lord of the manor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m the son of Lord Xu, but not the Young Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have no interest in power.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But some are born to carry certain responsibilities——there’s no escaping them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I once told my father about my dreams. But he paid them no heed at all!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I understand your frustration——especially when it's your own beloved family that tries to control your fate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just as we were wrapping up our conversation, a young man holding a fan appeared by our side.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ming, what are you doing here?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Fu——just a humble scholar, invited here by the Young Lord to exchange poems and ideas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pleasure to meet you. I’m Judge Dee, and this is my student, Yao.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,6 +490,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -829,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -896,49 +898,49 @@
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="34">
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="34">
@@ -946,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -955,7 +957,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>14</v>
@@ -969,13 +971,13 @@
     </row>
     <row r="7" spans="1:16" ht="17">
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17">
@@ -995,16 +997,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1015,13 +1017,13 @@
     </row>
     <row r="9" spans="1:16" ht="34">
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>17</v>
@@ -1036,35 +1038,35 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="34">
@@ -1072,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1081,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>14</v>
@@ -1095,19 +1097,19 @@
     </row>
     <row r="14" spans="1:16" ht="34">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1119,15 +1121,15 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1136,7 +1138,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1150,16 +1152,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1170,19 +1172,19 @@
     </row>
     <row r="17" spans="1:12" ht="17">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1193,114 +1195,117 @@
     </row>
     <row r="18" spans="1:12" ht="17">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="34">
+    <row r="19" spans="1:12" ht="17">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="34">
       <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="3">
-        <v>500</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="3">
+        <v>500</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="17">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="34">
+    <row r="23" spans="1:12" ht="17">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1309,18 +1314,18 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="17">
+    <row r="24" spans="1:12" ht="34">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1329,7 +1334,7 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1337,65 +1342,65 @@
     </row>
     <row r="25" spans="1:12" ht="17">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="3">
-        <v>500</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="17">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="3">
+        <v>500</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="17">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1403,311 +1408,306 @@
     </row>
     <row r="28" spans="1:12" ht="17">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="34">
+    <row r="29" spans="1:12" ht="17">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="17">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="3">
+      <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>40</v>
+      <c r="I31" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="34">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="17">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" ht="17">
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="34">
+    <row r="35" spans="1:12" ht="17">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="34">
+        <v>26</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="17">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="2">
-        <v>-500</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="34">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="34">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="17">
+        <v>26</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="34">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="3">
+        <v>500</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="3">
-        <v>500</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="34">
+        <v>26</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" ht="17">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
@@ -1727,7 +1727,7 @@
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>17</v>
@@ -1735,32 +1735,32 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="34">
+    <row r="43" spans="1:12" ht="51">
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="17">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>14</v>
@@ -1769,24 +1769,24 @@
         <v>500</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="17">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -1794,19 +1794,19 @@
     </row>
     <row r="46" spans="1:12" ht="17">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -1814,19 +1814,19 @@
     </row>
     <row r="47" spans="1:12" ht="34">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
@@ -1846,7 +1846,7 @@
         <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="49" spans="1:12" ht="34">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>17</v>
@@ -1876,35 +1876,35 @@
     </row>
     <row r="50" spans="1:12" ht="34">
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="17">
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="17">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Canteen_Garden.xlsx
+++ b/Assets/StreamingAssets/2_Canteen_Garden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DFE028-6F19-B34E-8545-8DD1C9F36B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DA09F4-CF59-1B47-8EB2-DE2CFB0B2D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Just then, we heard a clear, low voice reciting poetry.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Shock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +417,10 @@
   </si>
   <si>
     <t>A pleasure to meet you. I’m Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just then, we heard a clear, low voice reciting poetry.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,9 +490,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,7 +829,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:I38"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -898,7 +895,7 @@
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -907,7 +904,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -969,9 +966,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17">
+    <row r="7" spans="1:16" ht="34">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -989,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17">
@@ -997,10 +994,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1017,7 +1014,7 @@
     </row>
     <row r="9" spans="1:16" ht="34">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1049,7 +1046,7 @@
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1074,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1097,13 +1094,13 @@
     </row>
     <row r="14" spans="1:16" ht="34">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1121,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17">
@@ -1129,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1152,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1175,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1195,13 +1192,13 @@
     </row>
     <row r="18" spans="1:12" ht="17">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1218,13 +1215,13 @@
     </row>
     <row r="19" spans="1:12" ht="17">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1245,7 +1242,7 @@
     </row>
     <row r="20" spans="1:12" ht="34">
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1256,39 +1253,39 @@
     </row>
     <row r="21" spans="1:12" ht="17">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="K21" s="3">
         <v>500</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1305,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1325,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1345,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -1362,13 +1359,13 @@
     </row>
     <row r="26" spans="1:12" ht="17">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -1383,7 +1380,7 @@
         <v>500</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17">
@@ -1391,10 +1388,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -1408,13 +1405,13 @@
     </row>
     <row r="28" spans="1:12" ht="17">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -1428,13 +1425,13 @@
     </row>
     <row r="29" spans="1:12" ht="17">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1448,13 +1445,13 @@
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -1473,10 +1470,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -1491,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="34">
@@ -1499,10 +1496,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -1516,13 +1513,13 @@
     </row>
     <row r="33" spans="1:12" ht="17">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -1540,18 +1537,18 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -1568,13 +1565,13 @@
     </row>
     <row r="35" spans="1:12" ht="17">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -1591,13 +1588,13 @@
     </row>
     <row r="36" spans="1:12" ht="17">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
         <v>58</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -1618,7 +1615,7 @@
     </row>
     <row r="37" spans="1:12" ht="34">
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -1632,10 +1629,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -1643,19 +1640,16 @@
       <c r="E38" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:12" ht="34">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -1670,18 +1664,18 @@
         <v>500</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -1695,13 +1689,13 @@
     </row>
     <row r="41" spans="1:12" ht="17">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -1718,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
@@ -1737,7 +1731,7 @@
     </row>
     <row r="43" spans="1:12" ht="51">
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -1748,13 +1742,13 @@
     </row>
     <row r="44" spans="1:12" ht="17">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -1769,18 +1763,18 @@
         <v>500</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="17">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -1794,13 +1788,13 @@
     </row>
     <row r="46" spans="1:12" ht="17">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -1814,13 +1808,13 @@
     </row>
     <row r="47" spans="1:12" ht="34">
       <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
         <v>66</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" t="s">
-        <v>67</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -1837,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
@@ -1854,13 +1848,13 @@
     </row>
     <row r="49" spans="1:12" ht="34">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -1876,7 +1870,7 @@
     </row>
     <row r="50" spans="1:12" ht="34">
       <c r="B50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -1887,7 +1881,7 @@
     </row>
     <row r="51" spans="1:12" ht="17">
       <c r="B51" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
@@ -1895,13 +1889,13 @@
     </row>
     <row r="52" spans="1:12" ht="17">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
